--- a/excelFiles/shearStressesCFD.xlsx
+++ b/excelFiles/shearStressesCFD.xlsx
@@ -79,40 +79,40 @@
     <t>Unnamed: 26</t>
   </si>
   <si>
-    <t>(title "Circumferential Averages")</t>
-  </si>
-  <si>
-    <t>(labels "Radius" "Wall Shear Stress")</t>
-  </si>
-  <si>
-    <t>((xy/key/label "epsilon")</t>
+    <t>(title "X-Wall Shear Stress")</t>
+  </si>
+  <si>
+    <t>(labels "Position" "X-Wall Shear Stress")</t>
+  </si>
+  <si>
+    <t>((xy/key/label "line-37")</t>
   </si>
   <si>
     <t>)</t>
   </si>
   <si>
-    <t>power: 537.6942414201816</t>
-  </si>
-  <si>
-    <t>power: 516.994060500115</t>
-  </si>
-  <si>
-    <t>((xy/key/label "")</t>
-  </si>
-  <si>
-    <t>power: 514.1655744002585</t>
-  </si>
-  <si>
-    <t>power: 559.1997376045766</t>
-  </si>
-  <si>
-    <t>power: 525.1318820980388</t>
-  </si>
-  <si>
-    <t>power: 606.3803303556397</t>
-  </si>
-  <si>
-    <t>power: 660.6752204945481</t>
+    <t>power: 60.70255274323063</t>
+  </si>
+  <si>
+    <t>power: 168.83074349265868</t>
+  </si>
+  <si>
+    <t>((xy/key/label "line-160")</t>
+  </si>
+  <si>
+    <t>power: 216.37300483248316</t>
+  </si>
+  <si>
+    <t>power: 258.59792723402126</t>
+  </si>
+  <si>
+    <t>power: 294.3055623496364</t>
+  </si>
+  <si>
+    <t>power: 325.04761324754946</t>
+  </si>
+  <si>
+    <t>power: 351.80193390063596</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,1147 +630,1191 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
-        <v>0.0719817</v>
+        <v>0.073</v>
       </c>
       <c r="B6">
-        <v>890.5839999999999</v>
+        <v>-841.26</v>
       </c>
       <c r="F6">
-        <v>0.0719817</v>
+        <v>0.073</v>
       </c>
       <c r="G6">
-        <v>381.955</v>
+        <v>-309.458</v>
       </c>
       <c r="J6">
-        <v>0.0719817</v>
+        <v>0.073</v>
       </c>
       <c r="K6">
-        <v>204.738</v>
+        <v>-92.53660000000001</v>
       </c>
       <c r="N6">
-        <v>0.0719817</v>
+        <v>0.073</v>
       </c>
       <c r="O6">
-        <v>341.571</v>
+        <v>84.0433</v>
       </c>
       <c r="R6">
-        <v>0.0719817</v>
+        <v>0.073</v>
       </c>
       <c r="S6">
-        <v>181.778</v>
+        <v>294.648</v>
       </c>
       <c r="V6">
-        <v>0.0719817</v>
+        <v>0.073</v>
       </c>
       <c r="W6">
-        <v>574.735</v>
+        <v>545.4109999999999</v>
       </c>
       <c r="Z6">
-        <v>0.0719817</v>
+        <v>0.073</v>
       </c>
       <c r="AA6">
-        <v>842.005</v>
+        <v>821.443</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
-        <v>0.06994499999999999</v>
+        <v>0.0709634</v>
       </c>
       <c r="B7">
-        <v>580.378</v>
+        <v>-654.176</v>
       </c>
       <c r="F7">
-        <v>0.06994499999999999</v>
+        <v>0.0709634</v>
       </c>
       <c r="G7">
-        <v>371.741</v>
+        <v>-269.226</v>
       </c>
       <c r="J7">
-        <v>0.06994499999999999</v>
+        <v>0.0709634</v>
       </c>
       <c r="K7">
-        <v>283.28</v>
+        <v>-100.391</v>
       </c>
       <c r="N7">
-        <v>0.06994499999999999</v>
+        <v>0.0709634</v>
       </c>
       <c r="O7">
-        <v>290.857</v>
+        <v>41.4513</v>
       </c>
       <c r="R7">
-        <v>0.06994499999999999</v>
+        <v>0.0709634</v>
       </c>
       <c r="S7">
-        <v>248.558</v>
+        <v>199.195</v>
       </c>
       <c r="V7">
-        <v>0.06994499999999999</v>
+        <v>0.0709634</v>
       </c>
       <c r="W7">
-        <v>367.293</v>
+        <v>377.55</v>
       </c>
       <c r="Z7">
-        <v>0.06994499999999999</v>
+        <v>0.0709634</v>
       </c>
       <c r="AA7">
-        <v>458.786</v>
+        <v>569.4880000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
-        <v>0.06790839999999999</v>
+        <v>0.06892669999999999</v>
       </c>
       <c r="B8">
-        <v>365.366</v>
+        <v>-363.058</v>
       </c>
       <c r="F8">
-        <v>0.06790839999999999</v>
+        <v>0.06892669999999999</v>
       </c>
       <c r="G8">
-        <v>292.16</v>
+        <v>-202.133</v>
       </c>
       <c r="J8">
-        <v>0.06790839999999999</v>
+        <v>0.06892669999999999</v>
       </c>
       <c r="K8">
-        <v>243.196</v>
+        <v>-112.097</v>
       </c>
       <c r="N8">
-        <v>0.06790839999999999</v>
+        <v>0.06892669999999999</v>
       </c>
       <c r="O8">
-        <v>187.579</v>
+        <v>-24.1612</v>
       </c>
       <c r="R8">
-        <v>0.06790839999999999</v>
+        <v>0.06892669999999999</v>
       </c>
       <c r="S8">
-        <v>199.207</v>
+        <v>56.3008</v>
       </c>
       <c r="V8">
-        <v>0.06790839999999999</v>
+        <v>0.06892669999999999</v>
       </c>
       <c r="W8">
-        <v>191.582</v>
+        <v>130.541</v>
       </c>
       <c r="Z8">
-        <v>0.06790839999999999</v>
+        <v>0.06892669999999999</v>
       </c>
       <c r="AA8">
-        <v>202.11</v>
+        <v>202.573</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9">
-        <v>0.06587170000000001</v>
+        <v>0.06689009999999999</v>
       </c>
       <c r="B9">
-        <v>325.429</v>
+        <v>-210.124</v>
       </c>
       <c r="F9">
-        <v>0.06587170000000001</v>
+        <v>0.06689009999999999</v>
       </c>
       <c r="G9">
-        <v>319.708</v>
+        <v>-162.031</v>
       </c>
       <c r="J9">
-        <v>0.06587170000000001</v>
+        <v>0.06689009999999999</v>
       </c>
       <c r="K9">
-        <v>306.294</v>
+        <v>-121.739</v>
       </c>
       <c r="N9">
-        <v>0.06587170000000001</v>
+        <v>0.06689009999999999</v>
       </c>
       <c r="O9">
-        <v>277.144</v>
+        <v>-68.4602</v>
       </c>
       <c r="R9">
-        <v>0.06587170000000001</v>
+        <v>0.06689009999999999</v>
       </c>
       <c r="S9">
-        <v>284.941</v>
+        <v>-27.9025</v>
       </c>
       <c r="V9">
-        <v>0.06587170000000001</v>
+        <v>0.06689009999999999</v>
       </c>
       <c r="W9">
-        <v>278.222</v>
+        <v>-0.57827</v>
       </c>
       <c r="Z9">
-        <v>0.06587170000000001</v>
+        <v>0.06689009999999999</v>
       </c>
       <c r="AA9">
-        <v>283.653</v>
+        <v>18.7161</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10">
-        <v>0.06383510000000001</v>
+        <v>0.06485340000000001</v>
       </c>
       <c r="B10">
-        <v>274.457</v>
+        <v>-136.407</v>
       </c>
       <c r="F10">
-        <v>0.06383510000000001</v>
+        <v>0.06485340000000001</v>
       </c>
       <c r="G10">
-        <v>283.454</v>
+        <v>-139.719</v>
       </c>
       <c r="J10">
-        <v>0.06383510000000001</v>
+        <v>0.06485340000000001</v>
       </c>
       <c r="K10">
-        <v>280.188</v>
+        <v>-129.057</v>
       </c>
       <c r="N10">
-        <v>0.06383510000000001</v>
+        <v>0.06485340000000001</v>
       </c>
       <c r="O10">
-        <v>257</v>
+        <v>-102.609</v>
       </c>
       <c r="R10">
-        <v>0.06383510000000001</v>
+        <v>0.06485340000000001</v>
       </c>
       <c r="S10">
-        <v>267.416</v>
+        <v>-84.4967</v>
       </c>
       <c r="V10">
-        <v>0.06383510000000001</v>
+        <v>0.06485340000000001</v>
       </c>
       <c r="W10">
-        <v>252.519</v>
+        <v>-76.9499</v>
       </c>
       <c r="Z10">
-        <v>0.06383510000000001</v>
+        <v>0.06485340000000001</v>
       </c>
       <c r="AA10">
-        <v>254.452</v>
+        <v>-79.5454</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11">
-        <v>0.0617985</v>
+        <v>0.06281680000000001</v>
       </c>
       <c r="B11">
-        <v>289.307</v>
+        <v>-98.48860000000001</v>
       </c>
       <c r="F11">
-        <v>0.0617985</v>
+        <v>0.06281680000000001</v>
       </c>
       <c r="G11">
-        <v>315.363</v>
+        <v>-127.71</v>
       </c>
       <c r="J11">
-        <v>0.0617985</v>
+        <v>0.06281680000000001</v>
       </c>
       <c r="K11">
-        <v>326.282</v>
+        <v>-134.735</v>
       </c>
       <c r="N11">
-        <v>0.0617985</v>
+        <v>0.06281680000000001</v>
       </c>
       <c r="O11">
-        <v>335.142</v>
+        <v>-128.417</v>
       </c>
       <c r="R11">
-        <v>0.0617985</v>
+        <v>0.06281680000000001</v>
       </c>
       <c r="S11">
-        <v>330.463</v>
+        <v>-124.106</v>
       </c>
       <c r="V11">
-        <v>0.0617985</v>
+        <v>0.06281680000000001</v>
       </c>
       <c r="W11">
-        <v>344.392</v>
+        <v>-126.883</v>
       </c>
       <c r="Z11">
-        <v>0.0617985</v>
+        <v>0.06281680000000001</v>
       </c>
       <c r="AA11">
-        <v>364.094</v>
+        <v>-141.618</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12">
-        <v>0.0597618</v>
+        <v>0.0607801</v>
       </c>
       <c r="B12">
-        <v>277.633</v>
+        <v>-78.0835</v>
       </c>
       <c r="F12">
-        <v>0.0597618</v>
+        <v>0.0607801</v>
       </c>
       <c r="G12">
-        <v>302.374</v>
+        <v>-122.815</v>
       </c>
       <c r="J12">
-        <v>0.0597618</v>
+        <v>0.0607801</v>
       </c>
       <c r="K12">
-        <v>314.99</v>
+        <v>-140.805</v>
       </c>
       <c r="N12">
-        <v>0.0597618</v>
+        <v>0.0607801</v>
       </c>
       <c r="O12">
-        <v>332.56</v>
+        <v>-148.895</v>
       </c>
       <c r="R12">
-        <v>0.0597618</v>
+        <v>0.0607801</v>
       </c>
       <c r="S12">
-        <v>324.374</v>
+        <v>-155.939</v>
       </c>
       <c r="V12">
-        <v>0.0597618</v>
+        <v>0.0607801</v>
       </c>
       <c r="W12">
-        <v>343.296</v>
+        <v>-167.362</v>
       </c>
       <c r="Z12">
-        <v>0.0597618</v>
+        <v>0.0607801</v>
       </c>
       <c r="AA12">
-        <v>366.172</v>
+        <v>-192.638</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13">
-        <v>0.0577252</v>
+        <v>0.0587435</v>
       </c>
       <c r="B13">
-        <v>299.001</v>
+        <v>-65.8573</v>
       </c>
       <c r="F13">
-        <v>0.0577252</v>
+        <v>0.0587435</v>
       </c>
       <c r="G13">
-        <v>331.683</v>
+        <v>-121.44</v>
       </c>
       <c r="J13">
-        <v>0.0577252</v>
+        <v>0.0587435</v>
       </c>
       <c r="K13">
-        <v>351.466</v>
+        <v>-146.648</v>
       </c>
       <c r="N13">
-        <v>0.0577252</v>
+        <v>0.0587435</v>
       </c>
       <c r="O13">
-        <v>388.44</v>
+        <v>-165.121</v>
       </c>
       <c r="R13">
-        <v>0.0577252</v>
+        <v>0.0587435</v>
       </c>
       <c r="S13">
-        <v>369.974</v>
+        <v>-181.364</v>
       </c>
       <c r="V13">
-        <v>0.0577252</v>
+        <v>0.0587435</v>
       </c>
       <c r="W13">
-        <v>408.79</v>
+        <v>-199.785</v>
       </c>
       <c r="Z13">
-        <v>0.0577252</v>
+        <v>0.0587435</v>
       </c>
       <c r="AA13">
-        <v>440.92</v>
+        <v>-232.221</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14">
-        <v>0.0556885</v>
+        <v>0.0567068</v>
       </c>
       <c r="B14">
-        <v>302.445</v>
+        <v>-58.7277</v>
       </c>
       <c r="F14">
-        <v>0.0556885</v>
+        <v>0.0567068</v>
       </c>
       <c r="G14">
-        <v>332.896</v>
+        <v>-122.697</v>
       </c>
       <c r="J14">
-        <v>0.0556885</v>
+        <v>0.0567068</v>
       </c>
       <c r="K14">
-        <v>352.545</v>
+        <v>-153.128</v>
       </c>
       <c r="N14">
-        <v>0.0556885</v>
+        <v>0.0567068</v>
       </c>
       <c r="O14">
-        <v>393.39</v>
+        <v>-179.046</v>
       </c>
       <c r="R14">
-        <v>0.0556885</v>
+        <v>0.0567068</v>
       </c>
       <c r="S14">
-        <v>372.944</v>
+        <v>-202.506</v>
       </c>
       <c r="V14">
-        <v>0.0556885</v>
+        <v>0.0567068</v>
       </c>
       <c r="W14">
-        <v>415.125</v>
+        <v>-227.186</v>
       </c>
       <c r="Z14">
-        <v>0.0556885</v>
+        <v>0.0567068</v>
       </c>
       <c r="AA14">
-        <v>445.657</v>
+        <v>-263.429</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15">
-        <v>0.0536519</v>
+        <v>0.0546702</v>
       </c>
       <c r="B15">
-        <v>323.795</v>
+        <v>-54.3909</v>
       </c>
       <c r="F15">
-        <v>0.0536519</v>
+        <v>0.0546702</v>
       </c>
       <c r="G15">
-        <v>359.332</v>
+        <v>-125.209</v>
       </c>
       <c r="J15">
-        <v>0.0536519</v>
+        <v>0.0546702</v>
       </c>
       <c r="K15">
-        <v>383.27</v>
+        <v>-159.637</v>
       </c>
       <c r="N15">
-        <v>0.0536519</v>
+        <v>0.0546702</v>
       </c>
       <c r="O15">
-        <v>435.985</v>
+        <v>-190.91</v>
       </c>
       <c r="R15">
-        <v>0.0536519</v>
+        <v>0.0546702</v>
       </c>
       <c r="S15">
-        <v>408.893</v>
+        <v>-220.335</v>
       </c>
       <c r="V15">
-        <v>0.0536519</v>
+        <v>0.0546702</v>
       </c>
       <c r="W15">
-        <v>464.885</v>
+        <v>-250.732</v>
       </c>
       <c r="Z15">
-        <v>0.0536519</v>
+        <v>0.0546702</v>
       </c>
       <c r="AA15">
-        <v>499.487</v>
+        <v>-288.133</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16">
-        <v>0.0516152</v>
+        <v>0.0526336</v>
       </c>
       <c r="B16">
-        <v>337.009</v>
+        <v>-52.2172</v>
       </c>
       <c r="F16">
-        <v>0.0516152</v>
+        <v>0.0526336</v>
       </c>
       <c r="G16">
-        <v>371.463</v>
+        <v>-129.038</v>
       </c>
       <c r="J16">
-        <v>0.0516152</v>
+        <v>0.0526336</v>
       </c>
       <c r="K16">
-        <v>395.137</v>
+        <v>-166.853</v>
       </c>
       <c r="N16">
-        <v>0.0516152</v>
+        <v>0.0526336</v>
       </c>
       <c r="O16">
-        <v>449.968</v>
+        <v>-202.372</v>
       </c>
       <c r="R16">
-        <v>0.0516152</v>
+        <v>0.0526336</v>
       </c>
       <c r="S16">
-        <v>421.666</v>
+        <v>-237.104</v>
       </c>
       <c r="V16">
-        <v>0.0516152</v>
+        <v>0.0526336</v>
       </c>
       <c r="W16">
-        <v>480.533</v>
+        <v>-272.752</v>
       </c>
       <c r="Z16">
-        <v>0.0516152</v>
+        <v>0.0526336</v>
       </c>
       <c r="AA16">
-        <v>513.6079999999999</v>
+        <v>-310.642</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17">
-        <v>0.0495786</v>
+        <v>0.0505969</v>
       </c>
       <c r="B17">
-        <v>358.311</v>
+        <v>-51.2747</v>
       </c>
       <c r="F17">
-        <v>0.0495786</v>
+        <v>0.0505969</v>
       </c>
       <c r="G17">
-        <v>396.197</v>
+        <v>-133.504</v>
       </c>
       <c r="J17">
-        <v>0.0495786</v>
+        <v>0.0505969</v>
       </c>
       <c r="K17">
-        <v>422.734</v>
+        <v>-174.3</v>
       </c>
       <c r="N17">
-        <v>0.0495786</v>
+        <v>0.0505969</v>
       </c>
       <c r="O17">
-        <v>485.561</v>
+        <v>-213.336</v>
       </c>
       <c r="R17">
-        <v>0.0495786</v>
+        <v>0.0505969</v>
       </c>
       <c r="S17">
-        <v>452.73</v>
+        <v>-252.48</v>
       </c>
       <c r="V17">
-        <v>0.0495786</v>
+        <v>0.0505969</v>
       </c>
       <c r="W17">
-        <v>521.408</v>
+        <v>-292.469</v>
       </c>
       <c r="Z17">
-        <v>0.0495786</v>
+        <v>0.0505969</v>
       </c>
       <c r="AA17">
-        <v>557.91</v>
+        <v>-330.972</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18">
-        <v>0.0475419</v>
+        <v>0.0485603</v>
       </c>
       <c r="B18">
-        <v>380.475</v>
+        <v>-51.3785</v>
       </c>
       <c r="F18">
-        <v>0.0475419</v>
+        <v>0.0485603</v>
       </c>
       <c r="G18">
-        <v>418.663</v>
+        <v>-138.837</v>
       </c>
       <c r="J18">
-        <v>0.0475419</v>
+        <v>0.0485603</v>
       </c>
       <c r="K18">
-        <v>445.29</v>
+        <v>-182.444</v>
       </c>
       <c r="N18">
-        <v>0.0475419</v>
+        <v>0.0485603</v>
       </c>
       <c r="O18">
-        <v>509.939</v>
+        <v>-224.745</v>
       </c>
       <c r="R18">
-        <v>0.0475419</v>
+        <v>0.0485603</v>
       </c>
       <c r="S18">
-        <v>476.196</v>
+        <v>-267.688</v>
       </c>
       <c r="V18">
-        <v>0.0475419</v>
+        <v>0.0485603</v>
       </c>
       <c r="W18">
-        <v>547.158</v>
+        <v>-311.375</v>
       </c>
       <c r="Z18">
-        <v>0.0475419</v>
+        <v>0.0485603</v>
       </c>
       <c r="AA18">
-        <v>583.617</v>
+        <v>-351.303</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19">
-        <v>0.0455053</v>
+        <v>0.0465236</v>
       </c>
       <c r="B19">
-        <v>402.388</v>
+        <v>-52.159</v>
       </c>
       <c r="F19">
-        <v>0.0455053</v>
+        <v>0.0465236</v>
       </c>
       <c r="G19">
-        <v>442.799</v>
+        <v>-144.827</v>
       </c>
       <c r="J19">
-        <v>0.0455053</v>
+        <v>0.0465236</v>
       </c>
       <c r="K19">
-        <v>471.538</v>
+        <v>-191.141</v>
       </c>
       <c r="N19">
-        <v>0.0455053</v>
+        <v>0.0465236</v>
       </c>
       <c r="O19">
-        <v>541.992</v>
+        <v>-236.487</v>
       </c>
       <c r="R19">
-        <v>0.0455053</v>
+        <v>0.0465236</v>
       </c>
       <c r="S19">
-        <v>505.046</v>
+        <v>-282.616</v>
       </c>
       <c r="V19">
-        <v>0.0455053</v>
+        <v>0.0465236</v>
       </c>
       <c r="W19">
-        <v>582.88</v>
+        <v>-329.387</v>
       </c>
       <c r="Z19">
-        <v>0.0455053</v>
+        <v>0.0465236</v>
       </c>
       <c r="AA19">
-        <v>622.343</v>
+        <v>-371.181</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20">
-        <v>0.0434686</v>
+        <v>0.044487</v>
       </c>
       <c r="B20">
-        <v>434.846</v>
+        <v>-53.5674</v>
       </c>
       <c r="F20">
-        <v>0.0434686</v>
+        <v>0.044487</v>
       </c>
       <c r="G20">
-        <v>477.019</v>
+        <v>-151.611</v>
       </c>
       <c r="J20">
-        <v>0.0434686</v>
+        <v>0.044487</v>
       </c>
       <c r="K20">
-        <v>506.358</v>
+        <v>-200.682</v>
       </c>
       <c r="N20">
-        <v>0.0434686</v>
+        <v>0.044487</v>
       </c>
       <c r="O20">
-        <v>578.9640000000001</v>
+        <v>-249.105</v>
       </c>
       <c r="R20">
-        <v>0.0434686</v>
+        <v>0.044487</v>
       </c>
       <c r="S20">
-        <v>541.074</v>
+        <v>-298.192</v>
       </c>
       <c r="V20">
-        <v>0.0434686</v>
+        <v>0.044487</v>
       </c>
       <c r="W20">
-        <v>621.147</v>
+        <v>-347.902</v>
       </c>
       <c r="Z20">
-        <v>0.0434686</v>
+        <v>0.044487</v>
       </c>
       <c r="AA20">
-        <v>661.197</v>
+        <v>-391.96</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21">
-        <v>0.041432</v>
+        <v>0.0424503</v>
       </c>
       <c r="B21">
-        <v>457.869</v>
+        <v>-55.4218</v>
       </c>
       <c r="F21">
-        <v>0.041432</v>
+        <v>0.0424503</v>
       </c>
       <c r="G21">
-        <v>501.247</v>
+        <v>-159.104</v>
       </c>
       <c r="J21">
-        <v>0.041432</v>
+        <v>0.0424503</v>
       </c>
       <c r="K21">
-        <v>532.3049999999999</v>
+        <v>-211.056</v>
       </c>
       <c r="N21">
-        <v>0.041432</v>
+        <v>0.0424503</v>
       </c>
       <c r="O21">
-        <v>609.678</v>
+        <v>-262.543</v>
       </c>
       <c r="R21">
-        <v>0.041432</v>
+        <v>0.0424503</v>
       </c>
       <c r="S21">
-        <v>569.237</v>
+        <v>-314.389</v>
       </c>
       <c r="V21">
-        <v>0.041432</v>
+        <v>0.0424503</v>
       </c>
       <c r="W21">
-        <v>654.721</v>
+        <v>-366.923</v>
       </c>
       <c r="Z21">
-        <v>0.041432</v>
+        <v>0.0424503</v>
       </c>
       <c r="AA21">
-        <v>697.171</v>
+        <v>-413.301</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22">
-        <v>0.0393954</v>
+        <v>0.0404137</v>
       </c>
       <c r="B22">
-        <v>504.03</v>
+        <v>-57.8366</v>
       </c>
       <c r="F22">
-        <v>0.0393954</v>
+        <v>0.0404137</v>
       </c>
       <c r="G22">
-        <v>550.785</v>
+        <v>-167.642</v>
       </c>
       <c r="J22">
-        <v>0.0393954</v>
+        <v>0.0404137</v>
       </c>
       <c r="K22">
-        <v>583.038</v>
+        <v>-222.719</v>
       </c>
       <c r="N22">
-        <v>0.0393954</v>
+        <v>0.0404137</v>
       </c>
       <c r="O22">
-        <v>663.2380000000001</v>
+        <v>-277.499</v>
       </c>
       <c r="R22">
-        <v>0.0393954</v>
+        <v>0.0404137</v>
       </c>
       <c r="S22">
-        <v>621.567</v>
+        <v>-332.296</v>
       </c>
       <c r="V22">
-        <v>0.0393954</v>
+        <v>0.0404137</v>
       </c>
       <c r="W22">
-        <v>709.962</v>
+        <v>-387.864</v>
       </c>
       <c r="Z22">
-        <v>0.0393954</v>
+        <v>0.0404137</v>
       </c>
       <c r="AA22">
-        <v>753.3150000000001</v>
+        <v>-436.708</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23">
-        <v>0.0373587</v>
+        <v>0.038377</v>
       </c>
       <c r="B23">
-        <v>528.154</v>
+        <v>-60.5748</v>
       </c>
       <c r="F23">
-        <v>0.0373587</v>
+        <v>0.038377</v>
       </c>
       <c r="G23">
-        <v>575.239</v>
+        <v>-177.005</v>
       </c>
       <c r="J23">
-        <v>0.0373587</v>
+        <v>0.038377</v>
       </c>
       <c r="K23">
-        <v>609.01</v>
+        <v>-235.476</v>
       </c>
       <c r="N23">
-        <v>0.0373587</v>
+        <v>0.038377</v>
       </c>
       <c r="O23">
-        <v>693.853</v>
+        <v>-293.644</v>
       </c>
       <c r="R23">
-        <v>0.0373587</v>
+        <v>0.038377</v>
       </c>
       <c r="S23">
-        <v>649.691</v>
+        <v>-351.509</v>
       </c>
       <c r="V23">
-        <v>0.0373587</v>
+        <v>0.038377</v>
       </c>
       <c r="W23">
-        <v>743.313</v>
+        <v>-410.294</v>
       </c>
       <c r="Z23">
-        <v>0.0373587</v>
+        <v>0.038377</v>
       </c>
       <c r="AA23">
-        <v>788.7910000000001</v>
+        <v>-461.628</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24">
-        <v>0.0353221</v>
+        <v>0.0363404</v>
       </c>
       <c r="B24">
-        <v>594.405</v>
+        <v>-63.8691</v>
       </c>
       <c r="F24">
-        <v>0.0353221</v>
+        <v>0.0363404</v>
       </c>
       <c r="G24">
-        <v>646.601</v>
+        <v>-187.616</v>
       </c>
       <c r="J24">
-        <v>0.0353221</v>
+        <v>0.0363404</v>
       </c>
       <c r="K24">
-        <v>682.292</v>
+        <v>-249.833</v>
       </c>
       <c r="N24">
-        <v>0.0353221</v>
+        <v>0.0363404</v>
       </c>
       <c r="O24">
-        <v>770.843</v>
+        <v>-311.777</v>
       </c>
       <c r="R24">
-        <v>0.0353221</v>
+        <v>0.0363404</v>
       </c>
       <c r="S24">
-        <v>725.023</v>
+        <v>-373.207</v>
       </c>
       <c r="V24">
-        <v>0.0353221</v>
+        <v>0.0363404</v>
       </c>
       <c r="W24">
-        <v>822.552</v>
+        <v>-435.62</v>
       </c>
       <c r="Z24">
-        <v>0.0353221</v>
+        <v>0.0363404</v>
       </c>
       <c r="AA24">
-        <v>869.182</v>
+        <v>-489.663</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25">
-        <v>0.0332854</v>
+        <v>0.0343037</v>
       </c>
       <c r="B25">
-        <v>618.7380000000001</v>
+        <v>-67.5924</v>
       </c>
       <c r="F25">
-        <v>0.0332854</v>
+        <v>0.0343037</v>
       </c>
       <c r="G25">
-        <v>670.726</v>
+        <v>-199.534</v>
       </c>
       <c r="J25">
-        <v>0.0332854</v>
+        <v>0.0343037</v>
       </c>
       <c r="K25">
-        <v>707.823</v>
+        <v>-265.949</v>
       </c>
       <c r="N25">
-        <v>0.0332854</v>
+        <v>0.0343037</v>
       </c>
       <c r="O25">
-        <v>801.611</v>
+        <v>-331.992</v>
       </c>
       <c r="R25">
-        <v>0.0332854</v>
+        <v>0.0343037</v>
       </c>
       <c r="S25">
-        <v>752.886</v>
+        <v>-397.293</v>
       </c>
       <c r="V25">
-        <v>0.0332854</v>
+        <v>0.0343037</v>
       </c>
       <c r="W25">
-        <v>856.482</v>
+        <v>-463.753</v>
       </c>
       <c r="Z25">
-        <v>0.0332854</v>
+        <v>0.0343037</v>
       </c>
       <c r="AA25">
-        <v>905.431</v>
+        <v>-520.7809999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26">
-        <v>0.0312488</v>
+        <v>0.0322671</v>
       </c>
       <c r="B26">
-        <v>716.385</v>
+        <v>-72.04819999999999</v>
       </c>
       <c r="F26">
-        <v>0.0312488</v>
+        <v>0.0322671</v>
       </c>
       <c r="G26">
-        <v>775.053</v>
+        <v>-213.314</v>
       </c>
       <c r="J26">
-        <v>0.0312488</v>
+        <v>0.0322671</v>
       </c>
       <c r="K26">
-        <v>814.953</v>
+        <v>-284.411</v>
       </c>
       <c r="N26">
-        <v>0.0312488</v>
+        <v>0.0322671</v>
       </c>
       <c r="O26">
-        <v>913.595</v>
+        <v>-355.144</v>
       </c>
       <c r="R26">
-        <v>0.0312488</v>
+        <v>0.0322671</v>
       </c>
       <c r="S26">
-        <v>862.6609999999999</v>
+        <v>-425.043</v>
       </c>
       <c r="V26">
-        <v>0.0312488</v>
+        <v>0.0322671</v>
       </c>
       <c r="W26">
-        <v>971.287</v>
+        <v>-496.071</v>
       </c>
       <c r="Z26">
-        <v>0.0312488</v>
+        <v>0.0322671</v>
       </c>
       <c r="AA26">
-        <v>1021.54</v>
+        <v>-556.546</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27">
-        <v>0.0292121</v>
+        <v>0.0302305</v>
       </c>
       <c r="B27">
-        <v>738.524</v>
+        <v>-77.08620000000001</v>
       </c>
       <c r="F27">
-        <v>0.0292121</v>
+        <v>0.0302305</v>
       </c>
       <c r="G27">
-        <v>797.242</v>
+        <v>-228.848</v>
       </c>
       <c r="J27">
-        <v>0.0292121</v>
+        <v>0.0302305</v>
       </c>
       <c r="K27">
-        <v>838.907</v>
+        <v>-305.218</v>
       </c>
       <c r="N27">
-        <v>0.0292121</v>
+        <v>0.0302305</v>
       </c>
       <c r="O27">
-        <v>943.932</v>
+        <v>-381.225</v>
       </c>
       <c r="R27">
-        <v>0.0292121</v>
+        <v>0.0302305</v>
       </c>
       <c r="S27">
-        <v>889.296</v>
+        <v>-456.36</v>
       </c>
       <c r="V27">
-        <v>0.0292121</v>
+        <v>0.0302305</v>
       </c>
       <c r="W27">
-        <v>1005.68</v>
+        <v>-532.475</v>
       </c>
       <c r="Z27">
-        <v>0.0292121</v>
+        <v>0.0302305</v>
       </c>
       <c r="AA27">
-        <v>1059</v>
+        <v>-596.956</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28">
-        <v>0.0271755</v>
+        <v>0.0281938</v>
       </c>
       <c r="B28">
-        <v>887.544</v>
+        <v>-83.1433</v>
       </c>
       <c r="F28">
-        <v>0.0271755</v>
+        <v>0.0281938</v>
       </c>
       <c r="G28">
-        <v>953.773</v>
+        <v>-247.333</v>
       </c>
       <c r="J28">
-        <v>0.0271755</v>
+        <v>0.0281938</v>
       </c>
       <c r="K28">
-        <v>998.693</v>
+        <v>-329.796</v>
       </c>
       <c r="N28">
-        <v>0.0271755</v>
+        <v>0.0281938</v>
       </c>
       <c r="O28">
-        <v>1110.14</v>
+        <v>-411.905</v>
       </c>
       <c r="R28">
-        <v>0.0271755</v>
+        <v>0.0281938</v>
       </c>
       <c r="S28">
-        <v>1052.53</v>
+        <v>-492.905</v>
       </c>
       <c r="V28">
-        <v>0.0271755</v>
+        <v>0.0281938</v>
       </c>
       <c r="W28">
-        <v>1175.26</v>
+        <v>-574.977</v>
       </c>
       <c r="Z28">
-        <v>0.0271755</v>
+        <v>0.0281938</v>
       </c>
       <c r="AA28">
-        <v>1230.02</v>
+        <v>-644.15</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29">
-        <v>0.0251388</v>
+        <v>0.0261572</v>
       </c>
       <c r="B29">
-        <v>902.691</v>
+        <v>-90.2567</v>
       </c>
       <c r="F29">
-        <v>0.0251388</v>
+        <v>0.0261572</v>
       </c>
       <c r="G29">
-        <v>971.218</v>
+        <v>-269.021</v>
       </c>
       <c r="J29">
-        <v>0.0251388</v>
+        <v>0.0261572</v>
       </c>
       <c r="K29">
-        <v>1019.43</v>
+        <v>-358.748</v>
       </c>
       <c r="N29">
-        <v>0.0251388</v>
+        <v>0.0261572</v>
       </c>
       <c r="O29">
-        <v>1140.24</v>
+        <v>-448.208</v>
       </c>
       <c r="R29">
-        <v>0.0251388</v>
+        <v>0.0261572</v>
       </c>
       <c r="S29">
-        <v>1077.31</v>
+        <v>-536.369</v>
       </c>
       <c r="V29">
-        <v>0.0251388</v>
+        <v>0.0261572</v>
       </c>
       <c r="W29">
-        <v>1211.1</v>
+        <v>-625.624</v>
       </c>
       <c r="Z29">
-        <v>0.0251388</v>
+        <v>0.0261572</v>
       </c>
       <c r="AA29">
-        <v>1270.7</v>
+        <v>-700.477</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30">
-        <v>0.0231022</v>
+        <v>0.0241205</v>
       </c>
       <c r="B30">
-        <v>1133.39</v>
+        <v>-97.87690000000001</v>
       </c>
       <c r="F30">
-        <v>0.0231022</v>
+        <v>0.0241205</v>
       </c>
       <c r="G30">
-        <v>1207.31</v>
+        <v>-291.734</v>
       </c>
       <c r="J30">
-        <v>0.0231022</v>
+        <v>0.0241205</v>
       </c>
       <c r="K30">
-        <v>1256.96</v>
+        <v>-388.754</v>
       </c>
       <c r="N30">
-        <v>0.0231022</v>
+        <v>0.0241205</v>
       </c>
       <c r="O30">
-        <v>1380.76</v>
+        <v>-485.288</v>
       </c>
       <c r="R30">
-        <v>0.0231022</v>
+        <v>0.0241205</v>
       </c>
       <c r="S30">
-        <v>1316.49</v>
+        <v>-580.081</v>
       </c>
       <c r="V30">
-        <v>0.0231022</v>
+        <v>0.0241205</v>
       </c>
       <c r="W30">
-        <v>1453.02</v>
+        <v>-675.838</v>
       </c>
       <c r="Z30">
-        <v>0.0231022</v>
+        <v>0.0241205</v>
       </c>
       <c r="AA30">
-        <v>1511.03</v>
+        <v>-755.412</v>
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31" t="s">
-        <v>24</v>
-      </c>
-      <c r="V31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>24</v>
+      <c r="A31">
+        <v>0.0231</v>
+      </c>
+      <c r="B31">
+        <v>-99.91889999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.0231</v>
+      </c>
+      <c r="G31">
+        <v>-297.474</v>
+      </c>
+      <c r="J31">
+        <v>0.0231</v>
+      </c>
+      <c r="K31">
+        <v>-396.138</v>
+      </c>
+      <c r="N31">
+        <v>0.0231</v>
+      </c>
+      <c r="O31">
+        <v>-494.294</v>
+      </c>
+      <c r="R31">
+        <v>0.0231</v>
+      </c>
+      <c r="S31">
+        <v>-590.503</v>
+      </c>
+      <c r="V31">
+        <v>0.0231</v>
+      </c>
+      <c r="W31">
+        <v>-687.586</v>
+      </c>
+      <c r="Z31">
+        <v>0.0231</v>
+      </c>
+      <c r="AA31">
+        <v>-767.971</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J33" t="s">
         <v>28</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N33" t="s">
         <v>29</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R33" t="s">
         <v>30</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V33" t="s">
         <v>31</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Z33" t="s">
         <v>32</v>
       </c>
     </row>
